--- a/data/nzd0290/nzd0290.xlsx
+++ b/data/nzd0290/nzd0290.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H784"/>
+  <dimension ref="A1:H793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22331,6 +22331,276 @@
         <v>370.31</v>
       </c>
       <c r="H784" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>383.6518181818182</v>
+      </c>
+      <c r="C785" t="n">
+        <v>387.82</v>
+      </c>
+      <c r="D785" t="n">
+        <v>384.34</v>
+      </c>
+      <c r="E785" t="n">
+        <v>382.79</v>
+      </c>
+      <c r="F785" t="n">
+        <v>380.28</v>
+      </c>
+      <c r="G785" t="n">
+        <v>364.74</v>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:15+00:00</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>384.5454545454546</v>
+      </c>
+      <c r="C786" t="n">
+        <v>397.16</v>
+      </c>
+      <c r="D786" t="n">
+        <v>387.5</v>
+      </c>
+      <c r="E786" t="n">
+        <v>392.06</v>
+      </c>
+      <c r="F786" t="n">
+        <v>385.8</v>
+      </c>
+      <c r="G786" t="n">
+        <v>371.6</v>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>388.6181818181818</v>
+      </c>
+      <c r="C787" t="n">
+        <v>404.78</v>
+      </c>
+      <c r="D787" t="n">
+        <v>399.52</v>
+      </c>
+      <c r="E787" t="n">
+        <v>399.51</v>
+      </c>
+      <c r="F787" t="n">
+        <v>398.35</v>
+      </c>
+      <c r="G787" t="n">
+        <v>391.52</v>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:21+00:00</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>373.9990909090909</v>
+      </c>
+      <c r="C788" t="n">
+        <v>393.5433333333333</v>
+      </c>
+      <c r="D788" t="n">
+        <v>385.3433333333333</v>
+      </c>
+      <c r="E788" t="n">
+        <v>382.8633333333333</v>
+      </c>
+      <c r="F788" t="n">
+        <v>380.4233333333333</v>
+      </c>
+      <c r="G788" t="n">
+        <v>364.19</v>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-24 21:54:03+00:00</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>377.8545454545454</v>
+      </c>
+      <c r="C789" t="n">
+        <v>384.1633333333333</v>
+      </c>
+      <c r="D789" t="n">
+        <v>389.2633333333333</v>
+      </c>
+      <c r="E789" t="n">
+        <v>385.5633333333333</v>
+      </c>
+      <c r="F789" t="n">
+        <v>382.5333333333333</v>
+      </c>
+      <c r="G789" t="n">
+        <v>361.89</v>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>372.2690909090909</v>
+      </c>
+      <c r="C790" t="n">
+        <v>385.0566666666667</v>
+      </c>
+      <c r="D790" t="n">
+        <v>384.1166666666667</v>
+      </c>
+      <c r="E790" t="n">
+        <v>375.0266666666667</v>
+      </c>
+      <c r="F790" t="n">
+        <v>363.8866666666667</v>
+      </c>
+      <c r="G790" t="n">
+        <v>359.01</v>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 21:54:15+00:00</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>381.2445454545455</v>
+      </c>
+      <c r="C791" t="n">
+        <v>388.9</v>
+      </c>
+      <c r="D791" t="n">
+        <v>392.63</v>
+      </c>
+      <c r="E791" t="n">
+        <v>384.58</v>
+      </c>
+      <c r="F791" t="n">
+        <v>378.86</v>
+      </c>
+      <c r="G791" t="n">
+        <v>370.14</v>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:21+00:00</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>382.2927272727272</v>
+      </c>
+      <c r="C792" t="n">
+        <v>391.11</v>
+      </c>
+      <c r="D792" t="n">
+        <v>390.67</v>
+      </c>
+      <c r="E792" t="n">
+        <v>386.22</v>
+      </c>
+      <c r="F792" t="n">
+        <v>392.08</v>
+      </c>
+      <c r="G792" t="n">
+        <v>372.34</v>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>377.1690909090909</v>
+      </c>
+      <c r="C793" t="n">
+        <v>387.0033333333333</v>
+      </c>
+      <c r="D793" t="n">
+        <v>384.6633333333333</v>
+      </c>
+      <c r="E793" t="n">
+        <v>379.6933333333333</v>
+      </c>
+      <c r="F793" t="n">
+        <v>384.4533333333333</v>
+      </c>
+      <c r="G793" t="n">
+        <v>368.45</v>
+      </c>
+      <c r="H793" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -22347,7 +22617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B795"/>
+  <dimension ref="A1:B804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30305,6 +30575,96 @@
       </c>
       <c r="B795" t="n">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>2025-01-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>2025-02-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B804" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -30473,28 +30833,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2316849463738195</v>
+        <v>-0.223996927866604</v>
       </c>
       <c r="J2" t="n">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="K2" t="n">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02156183497496456</v>
+        <v>0.02071047204977217</v>
       </c>
       <c r="M2" t="n">
-        <v>8.554869238308981</v>
+        <v>8.490975459900246</v>
       </c>
       <c r="N2" t="n">
-        <v>135.3823857429898</v>
+        <v>133.8500006730368</v>
       </c>
       <c r="O2" t="n">
-        <v>11.63539366514902</v>
+        <v>11.5693561045132</v>
       </c>
       <c r="P2" t="n">
-        <v>383.2781673328344</v>
+        <v>383.2048771775718</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -30550,28 +30910,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2174156667953382</v>
+        <v>-0.2181513595108078</v>
       </c>
       <c r="J3" t="n">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="K3" t="n">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03205567921980812</v>
+        <v>0.03293371962036495</v>
       </c>
       <c r="M3" t="n">
-        <v>6.914397580403267</v>
+        <v>6.888303278497846</v>
       </c>
       <c r="N3" t="n">
-        <v>78.75498127479028</v>
+        <v>78.19314548338805</v>
       </c>
       <c r="O3" t="n">
-        <v>8.874400333250145</v>
+        <v>8.842688815252297</v>
       </c>
       <c r="P3" t="n">
-        <v>396.8488921598302</v>
+        <v>396.8563189334432</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -30627,28 +30987,28 @@
         <v>0.0635</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1442782978177322</v>
+        <v>-0.1532643408585558</v>
       </c>
       <c r="J4" t="n">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="K4" t="n">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01858895986573483</v>
+        <v>0.02133352039068481</v>
       </c>
       <c r="M4" t="n">
-        <v>6.062436190725438</v>
+        <v>6.052804084888521</v>
       </c>
       <c r="N4" t="n">
-        <v>60.41094031931459</v>
+        <v>60.06929366863396</v>
       </c>
       <c r="O4" t="n">
-        <v>7.772447511518787</v>
+        <v>7.750438288808831</v>
       </c>
       <c r="P4" t="n">
-        <v>395.8856797283564</v>
+        <v>395.9720467435216</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -30704,28 +31064,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01702944433752212</v>
+        <v>-0.02995635308523417</v>
       </c>
       <c r="J5" t="n">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="K5" t="n">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002561564726014653</v>
+        <v>0.0008022024129484828</v>
       </c>
       <c r="M5" t="n">
-        <v>6.149257415634596</v>
+        <v>6.167895863448029</v>
       </c>
       <c r="N5" t="n">
-        <v>62.0733963991781</v>
+        <v>62.16875552209981</v>
       </c>
       <c r="O5" t="n">
-        <v>7.878667171494053</v>
+        <v>7.88471657842562</v>
       </c>
       <c r="P5" t="n">
-        <v>390.9082622657626</v>
+        <v>391.0327494131825</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -30781,28 +31141,28 @@
         <v>0.065</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04884653399988744</v>
+        <v>0.02813853791599715</v>
       </c>
       <c r="J6" t="n">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="K6" t="n">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001671244288187324</v>
+        <v>0.0005572296679876576</v>
       </c>
       <c r="M6" t="n">
-        <v>6.729960876056682</v>
+        <v>6.786687491265584</v>
       </c>
       <c r="N6" t="n">
-        <v>78.39694099271989</v>
+        <v>79.25898514408476</v>
       </c>
       <c r="O6" t="n">
-        <v>8.854204706958152</v>
+        <v>8.90275154904846</v>
       </c>
       <c r="P6" t="n">
-        <v>389.7197630052566</v>
+        <v>389.9180259273646</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -30858,28 +31218,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01302411255141651</v>
+        <v>-0.001463010258235108</v>
       </c>
       <c r="J7" t="n">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="K7" t="n">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001008209282782335</v>
+        <v>1.287010144568335e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>7.662535955606127</v>
+        <v>7.682283171404518</v>
       </c>
       <c r="N7" t="n">
-        <v>92.5334046742296</v>
+        <v>92.77659489460326</v>
       </c>
       <c r="O7" t="n">
-        <v>9.619428500395935</v>
+        <v>9.632060781297181</v>
       </c>
       <c r="P7" t="n">
-        <v>374.6656477386672</v>
+        <v>374.8048812751685</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -30916,7 +31276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H784"/>
+  <dimension ref="A1:H793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60588,6 +60948,384 @@
         </is>
       </c>
     </row>
+    <row r="785">
+      <c r="A785" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>-39.30034782796272,176.97768255794867</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>-39.30078542671701,176.97703604059157</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>-39.301262184371524,176.976448808138</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>-39.30179532198745,176.97589210705175</t>
+        </is>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>-39.30232093686983,176.97535281431684</t>
+        </is>
+      </c>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>-39.30286946295572,176.97481435790348</t>
+        </is>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:15+00:00</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>-39.3003539880069,176.97768920953882</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>-39.30084434865647,176.97711316771628</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>-39.30127949635055,176.97647783879358</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>-39.30184346761724,176.97597977376807</t>
+        </is>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>-39.30234512386777,176.97540865033758</t>
+        </is>
+      </c>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>-39.302894324440814,176.97488707622097</t>
+        </is>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>-39.30038206226157,176.9777195240236</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>-39.30089241983156,176.97717609165488</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>-39.30134534753913,176.97658826565666</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>-39.30188216065431,176.97605022876564</t>
+        </is>
+      </c>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>-39.30240011412687,176.97553559650063</t>
+        </is>
+      </c>
+      <c r="G787" t="inlineStr">
+        <is>
+          <t>-39.30296651670121,176.97509823522537</t>
+        </is>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:21+00:00</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>-39.300281289430735,176.977610710024</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>-39.30082153270896,176.97708330227255</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>-39.301267681108335,176.97645802567584</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>-39.30179570285931,176.97589280056718</t>
+        </is>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>-39.30232156491422,176.97535426416474</t>
+        </is>
+      </c>
+      <c r="G788" t="inlineStr">
+        <is>
+          <t>-39.30286746968587,176.97480852771977</t>
+        </is>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-24 21:54:03+00:00</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>-39.30030786599697,176.9776394072243</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>-39.30076235840433,176.9770058448896</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>-39.30128915672353,176.97649403839551</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>-39.3018097258656,176.97591833455036</t>
+        </is>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>-39.30233081030968,176.97537560727736</t>
+        </is>
+      </c>
+      <c r="G789" t="inlineStr">
+        <is>
+          <t>-39.30285913419043,176.97478414695493</t>
+        </is>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>-39.30026936412608,176.97759783316906</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>-39.30076799405493,176.97701322177758</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>-39.30126096084528,176.97644675639387</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>-39.301755001481446,176.97581868902563</t>
+        </is>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>-39.30224910598947,176.9751869923428</t>
+        </is>
+      </c>
+      <c r="G790" t="inlineStr">
+        <is>
+          <t>-39.302848696692834,176.9747536180049</t>
+        </is>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 21:54:15+00:00</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>-39.30033123406735,176.9776646399376</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>-39.30079223996352,176.97704495892484</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>-39.301307600906966,176.97652496770436</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>-39.30180461872205,176.97590903513557</t>
+        </is>
+      </c>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>-39.302314714847576,176.9753384507088</t>
+        </is>
+      </c>
+      <c r="G791" t="inlineStr">
+        <is>
+          <t>-39.30288903322499,176.97487159972368</t>
+        </is>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:21+00:00</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>-39.3003384594308,176.97767244184996</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>-39.30080618188221,176.9770632084826</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>-39.301296863106245,176.97650696133252</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>-39.3018131363983,176.97592454466877</t>
+        </is>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>-39.30237264092446,176.97547217397138</t>
+        </is>
+      </c>
+      <c r="G792" t="inlineStr">
+        <is>
+          <t>-39.30289700628908,176.97489492047387</t>
+        </is>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>-39.30030314099617,176.97763430519745</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>-39.30078027472451,176.9770292967913</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>-39.301263955745284,176.9764517785736</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>-39.301779238803306,176.97586282179225</t>
+        </is>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>-39.3023392231777,176.97539502850304</t>
+        </is>
+      </c>
+      <c r="G793" t="inlineStr">
+        <is>
+          <t>-39.30288290845875,176.9748536851508</t>
+        </is>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0290/nzd0290.xlsx
+++ b/data/nzd0290/nzd0290.xlsx
@@ -30678,7 +30678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30769,35 +30769,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -30856,27 +30861,28 @@
       <c r="P2" t="n">
         <v>383.2048771775718</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (176.97482703738902 -39.29770318520293, 176.98159552599404 -39.3039713652863)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>176.974827037389</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-39.29770318520293</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>176.981595525994</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-39.3039713652863</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>176.9782112816915</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-39.30083727524462</v>
       </c>
     </row>
@@ -30933,27 +30939,28 @@
       <c r="P3" t="n">
         <v>396.8563189334432</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (176.9738336451639 -39.29833878995502, 176.9813436765754 -39.304076041868484)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>176.9738336451639</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-39.29833878995502</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>176.9813436765754</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-39.30407604186848</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>176.9775886608696</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-39.30120741591175</v>
       </c>
     </row>
@@ -31010,27 +31017,28 @@
       <c r="P4" t="n">
         <v>395.9720467435216</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (176.97291801379862 -39.299156527647206, 176.98127446902924 -39.3041396663573)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>176.9729180137986</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-39.29915652764721</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>176.9812744690292</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-39.3041396663573</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>176.9770962414139</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-39.30164809700226</v>
       </c>
     </row>
@@ -31087,27 +31095,28 @@
       <c r="P5" t="n">
         <v>391.0327494131825</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (176.97227215129215 -39.29980716085645, 176.98087472381152 -39.30453150439627)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>176.9722721512921</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-39.29980716085645</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>176.9808747238115</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-39.30453150439627</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>176.9765734375518</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-39.30216933262636</v>
       </c>
     </row>
@@ -31164,27 +31173,28 @@
       <c r="P6" t="n">
         <v>389.9180259273646</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (176.97150628704998 -39.30065459346671, 176.98070876969555 -39.30464082037578)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>176.97150628705</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-39.30065459346671</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>176.9807087696956</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-39.30464082037578</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>176.9761075283728</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-39.30264770692125</v>
       </c>
     </row>
@@ -31241,27 +31251,28 @@
       <c r="P7" t="n">
         <v>374.8048812751685</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (176.97094806052613 -39.30154753076333, 176.9805928669914 -39.30484486093344)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>176.9709480605261</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-39.30154753076333</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>176.9805928669914</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-39.30484486093344</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>176.9757704637587</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-39.30319619584839</v>
       </c>
     </row>

--- a/data/nzd0290/nzd0290.xlsx
+++ b/data/nzd0290/nzd0290.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H793"/>
+  <dimension ref="A1:H801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22603,6 +22603,246 @@
       <c r="H793" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>365.4554545454546</v>
+      </c>
+      <c r="C794" t="n">
+        <v>375.81</v>
+      </c>
+      <c r="D794" t="n">
+        <v>375.3</v>
+      </c>
+      <c r="E794" t="n">
+        <v>362.78</v>
+      </c>
+      <c r="F794" t="n">
+        <v>369.36</v>
+      </c>
+      <c r="G794" t="n">
+        <v>358.37</v>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:00:17+00:00</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>371.1418181818182</v>
+      </c>
+      <c r="C795" t="n">
+        <v>385.38</v>
+      </c>
+      <c r="D795" t="n">
+        <v>381.52</v>
+      </c>
+      <c r="E795" t="n">
+        <v>380.67</v>
+      </c>
+      <c r="F795" t="n">
+        <v>371.59</v>
+      </c>
+      <c r="G795" t="n">
+        <v>359.51</v>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:53:52+00:00</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>376.5263636363636</v>
+      </c>
+      <c r="C796" t="n">
+        <v>387.8466666666667</v>
+      </c>
+      <c r="D796" t="n">
+        <v>381.9566666666667</v>
+      </c>
+      <c r="E796" t="n">
+        <v>382.3566666666667</v>
+      </c>
+      <c r="F796" t="n">
+        <v>373.6566666666667</v>
+      </c>
+      <c r="G796" t="n">
+        <v>362.28</v>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>378.9181818181818</v>
+      </c>
+      <c r="C797" t="n">
+        <v>390.8233333333333</v>
+      </c>
+      <c r="D797" t="n">
+        <v>385.3333333333333</v>
+      </c>
+      <c r="E797" t="n">
+        <v>385.8933333333333</v>
+      </c>
+      <c r="F797" t="n">
+        <v>380.8733333333333</v>
+      </c>
+      <c r="G797" t="n">
+        <v>361.97</v>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>379.7527272727273</v>
+      </c>
+      <c r="C798" t="n">
+        <v>391.7733333333333</v>
+      </c>
+      <c r="D798" t="n">
+        <v>382.7733333333333</v>
+      </c>
+      <c r="E798" t="n">
+        <v>382.5133333333333</v>
+      </c>
+      <c r="F798" t="n">
+        <v>378.5633333333333</v>
+      </c>
+      <c r="G798" t="n">
+        <v>362.85</v>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>379.9127272727272</v>
+      </c>
+      <c r="C799" t="n">
+        <v>396.69</v>
+      </c>
+      <c r="D799" t="n">
+        <v>393.41</v>
+      </c>
+      <c r="E799" t="n">
+        <v>391.36</v>
+      </c>
+      <c r="F799" t="n">
+        <v>387.04</v>
+      </c>
+      <c r="G799" t="n">
+        <v>373.73</v>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>383.4290909090909</v>
+      </c>
+      <c r="C800" t="n">
+        <v>396.6866666666667</v>
+      </c>
+      <c r="D800" t="n">
+        <v>396.6866666666667</v>
+      </c>
+      <c r="E800" t="n">
+        <v>389.0266666666667</v>
+      </c>
+      <c r="F800" t="n">
+        <v>391.1266666666667</v>
+      </c>
+      <c r="G800" t="n">
+        <v>367.72</v>
+      </c>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:07+00:00</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>384.5345454545454</v>
+      </c>
+      <c r="C801" t="n">
+        <v>403.0466666666667</v>
+      </c>
+      <c r="D801" t="n">
+        <v>391.1866666666667</v>
+      </c>
+      <c r="E801" t="n">
+        <v>391.8666666666667</v>
+      </c>
+      <c r="F801" t="n">
+        <v>387.1766666666667</v>
+      </c>
+      <c r="G801" t="n">
+        <v>370.86</v>
+      </c>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -22617,7 +22857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B804"/>
+  <dimension ref="A1:B812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30665,6 +30905,86 @@
       </c>
       <c r="B804" t="n">
         <v>-0.61</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B805" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B806" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B807" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B808" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B809" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B810" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B811" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B812" t="n">
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -30838,28 +31158,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.223996927866604</v>
+        <v>-0.2239713221579297</v>
       </c>
       <c r="J2" t="n">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02071047204977217</v>
+        <v>0.02116664020412173</v>
       </c>
       <c r="M2" t="n">
-        <v>8.490975459900246</v>
+        <v>8.443131302622195</v>
       </c>
       <c r="N2" t="n">
-        <v>133.8500006730368</v>
+        <v>132.5696717660824</v>
       </c>
       <c r="O2" t="n">
-        <v>11.5693561045132</v>
+        <v>11.51389038362283</v>
       </c>
       <c r="P2" t="n">
-        <v>383.2048771775718</v>
+        <v>383.2043884537652</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30916,28 +31236,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2181513595108078</v>
+        <v>-0.2186864003854996</v>
       </c>
       <c r="J3" t="n">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03293371962036495</v>
+        <v>0.03357046760623872</v>
       </c>
       <c r="M3" t="n">
-        <v>6.888303278497846</v>
+        <v>6.878158326189939</v>
       </c>
       <c r="N3" t="n">
-        <v>78.19314548338805</v>
+        <v>77.97666972739694</v>
       </c>
       <c r="O3" t="n">
-        <v>8.842688815252297</v>
+        <v>8.830439950953572</v>
       </c>
       <c r="P3" t="n">
-        <v>396.8563189334432</v>
+        <v>396.8612088679695</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30994,28 +31314,28 @@
         <v>0.0635</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1532643408585558</v>
+        <v>-0.1665348818335275</v>
       </c>
       <c r="J4" t="n">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="K4" t="n">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02133352039068481</v>
+        <v>0.02529477888964082</v>
       </c>
       <c r="M4" t="n">
-        <v>6.052804084888521</v>
+        <v>6.072392888009214</v>
       </c>
       <c r="N4" t="n">
-        <v>60.06929366863396</v>
+        <v>60.30161075835645</v>
       </c>
       <c r="O4" t="n">
-        <v>7.750438288808831</v>
+        <v>7.765411177674782</v>
       </c>
       <c r="P4" t="n">
-        <v>395.9720467435216</v>
+        <v>396.1004604566685</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31072,28 +31392,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02995635308523417</v>
+        <v>-0.04517912139148701</v>
       </c>
       <c r="J5" t="n">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="K5" t="n">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008022024129484828</v>
+        <v>0.001824543740198692</v>
       </c>
       <c r="M5" t="n">
-        <v>6.167895863448029</v>
+        <v>6.187117963045579</v>
       </c>
       <c r="N5" t="n">
-        <v>62.16875552209981</v>
+        <v>62.87204697691578</v>
       </c>
       <c r="O5" t="n">
-        <v>7.88471657842562</v>
+        <v>7.929189553599774</v>
       </c>
       <c r="P5" t="n">
-        <v>391.0327494131825</v>
+        <v>391.1799608253017</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31150,28 +31470,28 @@
         <v>0.065</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02813853791599715</v>
+        <v>0.004073131986738865</v>
       </c>
       <c r="J6" t="n">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005572296679876576</v>
+        <v>1.167608198071601e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>6.786687491265584</v>
+        <v>6.851736127692548</v>
       </c>
       <c r="N6" t="n">
-        <v>79.25898514408476</v>
+        <v>80.30712520620044</v>
       </c>
       <c r="O6" t="n">
-        <v>8.90275154904846</v>
+        <v>8.961424284465078</v>
       </c>
       <c r="P6" t="n">
-        <v>389.9180259273646</v>
+        <v>390.1499736890461</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31228,28 +31548,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.001463010258235108</v>
+        <v>-0.02384407419476348</v>
       </c>
       <c r="J7" t="n">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="K7" t="n">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="L7" t="n">
-        <v>1.287010144568335e-06</v>
+        <v>0.0003445378626206752</v>
       </c>
       <c r="M7" t="n">
-        <v>7.682283171404518</v>
+        <v>7.70546121375015</v>
       </c>
       <c r="N7" t="n">
-        <v>92.77659489460326</v>
+        <v>93.15768194271396</v>
       </c>
       <c r="O7" t="n">
-        <v>9.632060781297181</v>
+        <v>9.651822726444678</v>
       </c>
       <c r="P7" t="n">
-        <v>374.8048812751685</v>
+        <v>375.0213836208781</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31287,7 +31607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H793"/>
+  <dimension ref="A1:H801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61337,6 +61657,342 @@
         </is>
       </c>
     </row>
+    <row r="794">
+      <c r="A794" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>-39.300222396081296,176.9775471174855</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>-39.30070966083975,176.97693686553916</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>-39.30121265891886,176.97636575849216</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>-39.30169139573633,176.9757028721784</t>
+        </is>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>-39.30227308859316,176.97524235621083</t>
+        </is>
+      </c>
+      <c r="G794" t="inlineStr">
+        <is>
+          <t>-39.30284637724777,176.97474683379494</t>
+        </is>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:00:17+00:00</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>-39.3002615935641,176.97758944257757</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>-39.300770033823845,176.97701589177092</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>-39.301246735067025,176.97642290104582</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>-39.3017843113262,176.97587205815364</t>
+        </is>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>-39.30228285981636,176.97526491312</t>
+        </is>
+      </c>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>-39.302850508759,176.97475891816924</t>
+        </is>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:53:52+00:00</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>-39.300298710524366,176.97762952120206</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>-39.30078559494532,176.97703626079732</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>-39.30124912733564,176.97642691266338</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>-39.3017930713809,176.975888009006</t>
+        </is>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>-39.30229191535532,176.97528581788424</t>
+        </is>
+      </c>
+      <c r="G796" t="inlineStr">
+        <is>
+          <t>-39.30286054760091,176.97478828108424</t>
+        </is>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>-39.30031519789425,176.97764732416388</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>-39.300804373428385,176.97706084126958</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>-39.30126762632361,176.97645793380667</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>-39.301811439788175,176.97592145537124</t>
+        </is>
+      </c>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>-39.30232353668138,176.97535881601294</t>
+        </is>
+      </c>
+      <c r="G797" t="inlineStr">
+        <is>
+          <t>-39.30285942412079,176.97478499498143</t>
+        </is>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>-39.30032095061319,176.97765353591765</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>-39.30081036656002,176.9770686861039</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>-39.301253601425366,176.97643441530764</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>-39.30179388506174,176.97588949060713</t>
+        </is>
+      </c>
+      <c r="F798" t="inlineStr">
+        <is>
+          <t>-39.30231341494128,176.9753354498614</t>
+        </is>
+      </c>
+      <c r="G798" t="inlineStr">
+        <is>
+          <t>-39.3028626133544,176.97479432327353</t>
+        </is>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>-39.30032205353094,176.97765472684225</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>-39.300841383635216,176.97710928658378</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>-39.30131187411252,176.97653213350694</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>-39.30183983202745,176.97597315383933</t>
+        </is>
+      </c>
+      <c r="F799" t="inlineStr">
+        <is>
+          <t>-39.302350557174904,176.9754211932169</t>
+        </is>
+      </c>
+      <c r="G799" t="inlineStr">
+        <is>
+          <t>-39.30290204381338,176.9749096549504</t>
+        </is>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>-39.30034629265154,176.9776809001263</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>-39.30084136260669,176.977109259058</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>-39.30132982522284,176.97656223601166</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>-39.30182771339182,176.975951087415</t>
+        </is>
+      </c>
+      <c r="F800" t="inlineStr">
+        <is>
+          <t>-39.30236846370913,176.97546253078397</t>
+        </is>
+      </c>
+      <c r="G800" t="inlineStr">
+        <is>
+          <t>-39.30288026284875,176.97484594690425</t>
+        </is>
+      </c>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:07+00:00</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>-39.30035391280799,176.97768912833936</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>-39.300881485009505,176.97716177824046</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>-39.30129969364925,176.97651170790962</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>-39.301842463502,176.97597794540673</t>
+        </is>
+      </c>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>-39.302351156007056,176.97542257563114</t>
+        </is>
+      </c>
+      <c r="G801" t="inlineStr">
+        <is>
+          <t>-39.30289164259197,176.97487923196866</t>
+        </is>
+      </c>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0290/nzd0290.xlsx
+++ b/data/nzd0290/nzd0290.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H801"/>
+  <dimension ref="A1:H804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22841,6 +22841,96 @@
         <v>370.86</v>
       </c>
       <c r="H801" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:47+00:00</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>363.1136363636364</v>
+      </c>
+      <c r="C802" t="n">
+        <v>388.91</v>
+      </c>
+      <c r="D802" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="E802" t="n">
+        <v>387.09</v>
+      </c>
+      <c r="F802" t="n">
+        <v>384.35</v>
+      </c>
+      <c r="G802" t="n">
+        <v>373</v>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:29+00:00</t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>363.6172727272727</v>
+      </c>
+      <c r="C803" t="n">
+        <v>391.3266666666667</v>
+      </c>
+      <c r="D803" t="n">
+        <v>392.5466666666667</v>
+      </c>
+      <c r="E803" t="n">
+        <v>388.8466666666667</v>
+      </c>
+      <c r="F803" t="n">
+        <v>392.1166666666667</v>
+      </c>
+      <c r="G803" t="n">
+        <v>376.8</v>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B804" t="n">
+        <v>374.9381818181818</v>
+      </c>
+      <c r="C804" t="n">
+        <v>392.29</v>
+      </c>
+      <c r="D804" t="n">
+        <v>391.72</v>
+      </c>
+      <c r="E804" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="F804" t="n">
+        <v>386.31</v>
+      </c>
+      <c r="G804" t="n">
+        <v>368.92</v>
+      </c>
+      <c r="H804" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -22857,7 +22947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B812"/>
+  <dimension ref="A1:B815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30985,6 +31075,36 @@
       </c>
       <c r="B812" t="n">
         <v>-0.14</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B813" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B814" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B815" t="n">
+        <v>-0.78</v>
       </c>
     </row>
   </sheetData>
@@ -31158,28 +31278,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2239713221579297</v>
+        <v>-0.2331609629240159</v>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="K2" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02116664020412173</v>
+        <v>0.02300620027790123</v>
       </c>
       <c r="M2" t="n">
-        <v>8.443131302622195</v>
+        <v>8.459547505048567</v>
       </c>
       <c r="N2" t="n">
-        <v>132.5696717660824</v>
+        <v>132.569709982017</v>
       </c>
       <c r="O2" t="n">
-        <v>11.51389038362283</v>
+        <v>11.51389204318058</v>
       </c>
       <c r="P2" t="n">
-        <v>383.2043884537652</v>
+        <v>383.2937969008393</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31236,28 +31356,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2186864003854996</v>
+        <v>-0.2190128770614561</v>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="K3" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03357046760623872</v>
+        <v>0.03396132782511185</v>
       </c>
       <c r="M3" t="n">
-        <v>6.878158326189939</v>
+        <v>6.852099512820315</v>
       </c>
       <c r="N3" t="n">
-        <v>77.97666972739694</v>
+        <v>77.63000370724382</v>
       </c>
       <c r="O3" t="n">
-        <v>8.830439950953572</v>
+        <v>8.810789051341759</v>
       </c>
       <c r="P3" t="n">
-        <v>396.8612088679695</v>
+        <v>396.8644018023735</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31314,28 +31434,28 @@
         <v>0.0635</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1665348818335275</v>
+        <v>-0.1669937702779198</v>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="K4" t="n">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02529477888964082</v>
+        <v>0.02565009444723043</v>
       </c>
       <c r="M4" t="n">
-        <v>6.072392888009214</v>
+        <v>6.050440904279548</v>
       </c>
       <c r="N4" t="n">
-        <v>60.30161075835645</v>
+        <v>60.04534839515841</v>
       </c>
       <c r="O4" t="n">
-        <v>7.765411177674782</v>
+        <v>7.748893365839951</v>
       </c>
       <c r="P4" t="n">
-        <v>396.1004604566685</v>
+        <v>396.104941057753</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31392,28 +31512,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04517912139148701</v>
+        <v>-0.04647246143343157</v>
       </c>
       <c r="J5" t="n">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="K5" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001824543740198692</v>
+        <v>0.00194710853718072</v>
       </c>
       <c r="M5" t="n">
-        <v>6.187117963045579</v>
+        <v>6.167203581976272</v>
       </c>
       <c r="N5" t="n">
-        <v>62.87204697691578</v>
+        <v>62.61386367800836</v>
       </c>
       <c r="O5" t="n">
-        <v>7.929189553599774</v>
+        <v>7.912892244812157</v>
       </c>
       <c r="P5" t="n">
-        <v>391.1799608253017</v>
+        <v>391.192584110187</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31470,28 +31590,28 @@
         <v>0.065</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004073131986738865</v>
+        <v>0.001824492746732994</v>
       </c>
       <c r="J6" t="n">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="K6" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="L6" t="n">
-        <v>1.167608198071601e-05</v>
+        <v>2.362013141077313e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>6.851736127692548</v>
+        <v>6.840555690590953</v>
       </c>
       <c r="N6" t="n">
-        <v>80.30712520620044</v>
+        <v>80.02921309713508</v>
       </c>
       <c r="O6" t="n">
-        <v>8.961424284465078</v>
+        <v>8.945904822718331</v>
       </c>
       <c r="P6" t="n">
-        <v>390.1499736890461</v>
+        <v>390.1718404080075</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31548,28 +31668,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.02384407419476348</v>
+        <v>-0.02509497839344726</v>
       </c>
       <c r="J7" t="n">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="K7" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003445378626206752</v>
+        <v>0.0003848410902258514</v>
       </c>
       <c r="M7" t="n">
-        <v>7.70546121375015</v>
+        <v>7.684905788287899</v>
       </c>
       <c r="N7" t="n">
-        <v>93.15768194271396</v>
+        <v>92.80268314538539</v>
       </c>
       <c r="O7" t="n">
-        <v>9.651822726444678</v>
+        <v>9.633414926462235</v>
       </c>
       <c r="P7" t="n">
-        <v>375.0213836208781</v>
+        <v>375.0335989666223</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31607,7 +31727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H801"/>
+  <dimension ref="A1:H804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61993,6 +62113,132 @@
         </is>
       </c>
     </row>
+    <row r="802">
+      <c r="A802" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:47+00:00</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>-39.30020625335572,176.97752968673407</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>-39.30079230304914,176.977045041502</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>-39.30129045329514,176.97649621263355</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>-39.30181765492076,176.97593277228847</t>
+        </is>
+      </c>
+      <c r="F802" t="inlineStr">
+        <is>
+          <t>-39.3023387704019,176.97539398326336</t>
+        </is>
+      </c>
+      <c r="G802" t="inlineStr">
+        <is>
+          <t>-39.30289939820734,176.9749019166999</t>
+        </is>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:29+00:00</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>-39.30020972504462,176.9775334354276</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>-39.3008075487368,176.97706499765533</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>-39.30130714436789,176.97652420212722</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>-39.301826778525445,176.9759493851483</t>
+        </is>
+      </c>
+      <c r="F803" t="inlineStr">
+        <is>
+          <t>-39.30237280158657,176.97547254486324</t>
+        </is>
+      </c>
+      <c r="G803" t="inlineStr">
+        <is>
+          <t>-39.302913169849234,176.97494219800998</t>
+        </is>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>-39.30028776280875,176.97761769993187</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>-39.30081362598225,176.97707295259335</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>-39.301302615499864,176.9765166076025</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>-39.301829652373826,176.9759546180424</t>
+        </is>
+      </c>
+      <c r="F804" t="inlineStr">
+        <is>
+          <t>-39.30234735853458,176.97541380910224</t>
+        </is>
+      </c>
+      <c r="G804" t="inlineStr">
+        <is>
+          <t>-39.30288461179641,176.97485866730983</t>
+        </is>
+      </c>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0290/nzd0290.xlsx
+++ b/data/nzd0290/nzd0290.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H804"/>
+  <dimension ref="A1:H806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22931,6 +22931,64 @@
         <v>368.92</v>
       </c>
       <c r="H804" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B805" t="n">
+        <v>362.5781818181818</v>
+      </c>
+      <c r="C805" t="n">
+        <v>387.8</v>
+      </c>
+      <c r="D805" t="n">
+        <v>387.25</v>
+      </c>
+      <c r="E805" t="n">
+        <v>386.47</v>
+      </c>
+      <c r="F805" t="n">
+        <v>380.03</v>
+      </c>
+      <c r="G805" t="n">
+        <v>365.54</v>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr"/>
+      <c r="C806" t="n">
+        <v>382.96</v>
+      </c>
+      <c r="D806" t="n">
+        <v>385.21</v>
+      </c>
+      <c r="E806" t="n">
+        <v>374.69</v>
+      </c>
+      <c r="F806" t="n">
+        <v>374.88</v>
+      </c>
+      <c r="G806" t="n">
+        <v>359.96</v>
+      </c>
+      <c r="H806" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -22947,7 +23005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B815"/>
+  <dimension ref="A1:B817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31105,6 +31163,26 @@
       </c>
       <c r="B815" t="n">
         <v>-0.78</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B816" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B817" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -31278,28 +31356,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2331609629240159</v>
+        <v>-0.2375675076090206</v>
       </c>
       <c r="J2" t="n">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="K2" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02300620027790123</v>
+        <v>0.023876563256502</v>
       </c>
       <c r="M2" t="n">
-        <v>8.459547505048567</v>
+        <v>8.473304494295061</v>
       </c>
       <c r="N2" t="n">
-        <v>132.569709982017</v>
+        <v>132.7031294641154</v>
       </c>
       <c r="O2" t="n">
-        <v>11.51389204318058</v>
+        <v>11.51968443422455</v>
       </c>
       <c r="P2" t="n">
-        <v>383.2937969008393</v>
+        <v>383.3367659296716</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31356,28 +31434,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2190128770614561</v>
+        <v>-0.2223129430295688</v>
       </c>
       <c r="J3" t="n">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="K3" t="n">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03396132782511185</v>
+        <v>0.03510838831862373</v>
       </c>
       <c r="M3" t="n">
-        <v>6.852099512820315</v>
+        <v>6.84968728727166</v>
       </c>
       <c r="N3" t="n">
-        <v>77.63000370724382</v>
+        <v>77.51420496084197</v>
       </c>
       <c r="O3" t="n">
-        <v>8.810789051341759</v>
+        <v>8.804215181425427</v>
       </c>
       <c r="P3" t="n">
-        <v>396.8644018023735</v>
+        <v>396.8968181870268</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31434,28 +31512,28 @@
         <v>0.0635</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1669937702779198</v>
+        <v>-0.1700570305157334</v>
       </c>
       <c r="J4" t="n">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="K4" t="n">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02565009444723043</v>
+        <v>0.02668829335391087</v>
       </c>
       <c r="M4" t="n">
-        <v>6.050440904279548</v>
+        <v>6.049782445485269</v>
       </c>
       <c r="N4" t="n">
-        <v>60.04534839515841</v>
+        <v>59.96265033476169</v>
       </c>
       <c r="O4" t="n">
-        <v>7.748893365839951</v>
+        <v>7.743555406579183</v>
       </c>
       <c r="P4" t="n">
-        <v>396.104941057753</v>
+        <v>396.1349406021556</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31512,28 +31590,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04647246143343157</v>
+        <v>-0.05162454117592816</v>
       </c>
       <c r="J5" t="n">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="K5" t="n">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00194710853718072</v>
+        <v>0.002402314786446591</v>
       </c>
       <c r="M5" t="n">
-        <v>6.167203581976272</v>
+        <v>6.176858395601466</v>
       </c>
       <c r="N5" t="n">
-        <v>62.61386367800836</v>
+        <v>62.78672719966606</v>
       </c>
       <c r="O5" t="n">
-        <v>7.912892244812157</v>
+        <v>7.923807620056539</v>
       </c>
       <c r="P5" t="n">
-        <v>391.192584110187</v>
+        <v>391.2430218378639</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31590,28 +31668,28 @@
         <v>0.065</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001824492746732994</v>
+        <v>-0.005328709589677042</v>
       </c>
       <c r="J6" t="n">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="K6" t="n">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="L6" t="n">
-        <v>2.362013141077313e-06</v>
+        <v>2.014545885165031e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>6.840555690590953</v>
+        <v>6.864122187051216</v>
       </c>
       <c r="N6" t="n">
-        <v>80.02921309713508</v>
+        <v>80.28972340776856</v>
       </c>
       <c r="O6" t="n">
-        <v>8.945904822718331</v>
+        <v>8.960453303698902</v>
       </c>
       <c r="P6" t="n">
-        <v>390.1718404080075</v>
+        <v>390.2415690649223</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31668,28 +31746,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.02509497839344726</v>
+        <v>-0.03152408664291255</v>
       </c>
       <c r="J7" t="n">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="K7" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003848410902258514</v>
+        <v>0.0006080502914840302</v>
       </c>
       <c r="M7" t="n">
-        <v>7.684905788287899</v>
+        <v>7.695163034621936</v>
       </c>
       <c r="N7" t="n">
-        <v>92.80268314538539</v>
+        <v>92.94666927460487</v>
       </c>
       <c r="O7" t="n">
-        <v>9.633414926462235</v>
+        <v>9.64088529516895</v>
       </c>
       <c r="P7" t="n">
-        <v>375.0335989666223</v>
+        <v>375.0964801386763</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31727,7 +31805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H804"/>
+  <dimension ref="A1:H806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31916,7 +31994,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-39.300891221206925,176.97717452268424</t>
+          <t>-39.30089122120693,176.97717452268424</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -34156,7 +34234,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-39.300885270140434,176.9771667328834</t>
+          <t>-39.30088527014043,176.9771667328834</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -43349,7 +43427,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>-39.30236145299614,176.975446346416</t>
+          <t>-39.302361452996145,176.975446346416</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -55596,7 +55674,7 @@
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>-39.302917881197025,176.9749559784616</t>
+          <t>-39.30291788119702,176.9749559784616</t>
         </is>
       </c>
       <c r="H639" t="inlineStr">
@@ -59460,7 +59538,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>-39.30081699054693,176.97707735671185</t>
+          <t>-39.300816990546934,176.97707735671185</t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
@@ -61390,7 +61468,7 @@
       </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>-39.30288964932558,176.97487340178148</t>
+          <t>-39.302889649325586,176.97487340178148</t>
         </is>
       </c>
       <c r="H784" t="inlineStr">
@@ -62234,6 +62312,86 @@
         </is>
       </c>
       <c r="H804" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>-39.300202562336125,176.97752570121017</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>-39.30078530054577,176.97703587543725</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>-39.30127812673225,176.97647554206398</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>-39.30181443482436,176.9759269089272</t>
+        </is>
+      </c>
+      <c r="F805" t="inlineStr">
+        <is>
+          <t>-39.302319841443506,176.97535028551243</t>
+        </is>
+      </c>
+      <c r="G805" t="inlineStr">
+        <is>
+          <t>-39.302872362256764,176.97482283817124</t>
+        </is>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr"/>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>-39.30075476709802,176.97699590811325</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>-39.30126695064502,176.9764568007538</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>-39.30175325293108,176.97581550516293</t>
+        </is>
+      </c>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>-39.30229727564825,176.97529819215842</t>
+        </is>
+      </c>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>-39.30285213961833,176.97476368831732</t>
+        </is>
+      </c>
+      <c r="H806" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0290/nzd0290.xlsx
+++ b/data/nzd0290/nzd0290.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H806"/>
+  <dimension ref="A1:H808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22991,6 +22991,58 @@
       <c r="H806" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr"/>
+      <c r="C807" t="inlineStr"/>
+      <c r="D807" t="n">
+        <v>379.15</v>
+      </c>
+      <c r="E807" t="n">
+        <v>371.53</v>
+      </c>
+      <c r="F807" t="inlineStr"/>
+      <c r="G807" t="inlineStr"/>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B808" t="n">
+        <v>182.7190909090909</v>
+      </c>
+      <c r="C808" t="n">
+        <v>383.8866666666667</v>
+      </c>
+      <c r="D808" t="n">
+        <v>384.7166666666667</v>
+      </c>
+      <c r="E808" t="n">
+        <v>383.1166666666667</v>
+      </c>
+      <c r="F808" t="n">
+        <v>378.7266666666667</v>
+      </c>
+      <c r="G808" t="n">
+        <v>361.86</v>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -23005,7 +23057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B817"/>
+  <dimension ref="A1:B819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31183,6 +31235,26 @@
       </c>
       <c r="B817" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B818" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B819" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -31356,28 +31428,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2375675076090206</v>
+        <v>-0.2958263586666245</v>
       </c>
       <c r="J2" t="n">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="K2" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L2" t="n">
-        <v>0.023876563256502</v>
+        <v>0.02541776663663353</v>
       </c>
       <c r="M2" t="n">
-        <v>8.473304494295061</v>
+        <v>8.84274501848852</v>
       </c>
       <c r="N2" t="n">
-        <v>132.7031294641154</v>
+        <v>193.2951816914334</v>
       </c>
       <c r="O2" t="n">
-        <v>11.51968443422455</v>
+        <v>13.90306375197328</v>
       </c>
       <c r="P2" t="n">
-        <v>383.3367659296716</v>
+        <v>383.9061462020169</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31434,28 +31506,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2223129430295688</v>
+        <v>-0.2243647398251077</v>
       </c>
       <c r="J3" t="n">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="K3" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03510838831862373</v>
+        <v>0.03580462864875633</v>
       </c>
       <c r="M3" t="n">
-        <v>6.84968728727166</v>
+        <v>6.850734470102744</v>
       </c>
       <c r="N3" t="n">
-        <v>77.51420496084197</v>
+        <v>77.47628371507504</v>
       </c>
       <c r="O3" t="n">
-        <v>8.804215181425427</v>
+        <v>8.802061333294324</v>
       </c>
       <c r="P3" t="n">
-        <v>396.8968181870268</v>
+        <v>396.9170021650052</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31512,28 +31584,28 @@
         <v>0.0635</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1700570305157334</v>
+        <v>-0.1754230045567739</v>
       </c>
       <c r="J4" t="n">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="K4" t="n">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02668829335391087</v>
+        <v>0.02837524702918681</v>
       </c>
       <c r="M4" t="n">
-        <v>6.049782445485269</v>
+        <v>6.062308976367989</v>
       </c>
       <c r="N4" t="n">
-        <v>59.96265033476169</v>
+        <v>60.08813258378109</v>
       </c>
       <c r="O4" t="n">
-        <v>7.743555406579183</v>
+        <v>7.751653538683285</v>
       </c>
       <c r="P4" t="n">
-        <v>396.1349406021556</v>
+        <v>396.1875684080292</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31590,28 +31662,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05162454117592816</v>
+        <v>-0.05846818183233472</v>
       </c>
       <c r="J5" t="n">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="K5" t="n">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002402314786446591</v>
+        <v>0.003070664160220726</v>
       </c>
       <c r="M5" t="n">
-        <v>6.176858395601466</v>
+        <v>6.196230238251797</v>
       </c>
       <c r="N5" t="n">
-        <v>62.78672719966606</v>
+        <v>63.1544576050632</v>
       </c>
       <c r="O5" t="n">
-        <v>7.923807620056539</v>
+        <v>7.946977891315868</v>
       </c>
       <c r="P5" t="n">
-        <v>391.2430218378639</v>
+        <v>391.3100998774401</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31668,28 +31740,28 @@
         <v>0.065</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.005328709589677042</v>
+        <v>-0.008511388960736483</v>
       </c>
       <c r="J6" t="n">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="K6" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L6" t="n">
-        <v>2.014545885165031e-05</v>
+        <v>5.14288890226533e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>6.864122187051216</v>
+        <v>6.873445726807263</v>
       </c>
       <c r="N6" t="n">
-        <v>80.28972340776856</v>
+        <v>80.36146304091658</v>
       </c>
       <c r="O6" t="n">
-        <v>8.960453303698902</v>
+        <v>8.964455535107337</v>
       </c>
       <c r="P6" t="n">
-        <v>390.2415690649223</v>
+        <v>390.2726410685549</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31746,28 +31818,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03152408664291255</v>
+        <v>-0.03495017540510802</v>
       </c>
       <c r="J7" t="n">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="K7" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006080502914840302</v>
+        <v>0.0007477124181066719</v>
       </c>
       <c r="M7" t="n">
-        <v>7.695163034621936</v>
+        <v>7.701686242251887</v>
       </c>
       <c r="N7" t="n">
-        <v>92.94666927460487</v>
+        <v>93.03536432527613</v>
       </c>
       <c r="O7" t="n">
-        <v>9.64088529516895</v>
+        <v>9.645484141569884</v>
       </c>
       <c r="P7" t="n">
-        <v>375.0964801386763</v>
+        <v>375.1300406554382</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31805,7 +31877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H806"/>
+  <dimension ref="A1:H808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62397,6 +62469,74 @@
         </is>
       </c>
     </row>
+    <row r="807">
+      <c r="A807" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr"/>
+      <c r="C807" t="inlineStr"/>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>-39.30123375107211,176.9764011280728</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>-39.30173684079035,176.97578562099358</t>
+        </is>
+      </c>
+      <c r="F807" t="inlineStr"/>
+      <c r="G807" t="inlineStr"/>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>-39.29896274042624,176.97618698842913</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>-39.30076061303483,176.9770035602566</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>-39.30126424793063,176.9764522685424</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>-39.301797018598435,176.9758951963479</t>
+        </is>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>-39.30231413062005,176.97533710201333</t>
+        </is>
+      </c>
+      <c r="G808" t="inlineStr">
+        <is>
+          <t>-39.30285902546654,176.974783828945</t>
+        </is>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0290/nzd0290.xlsx
+++ b/data/nzd0290/nzd0290.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H808"/>
+  <dimension ref="A1:H810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23022,9 +23022,7 @@
           <t>2025-06-17 21:53:44+00:00</t>
         </is>
       </c>
-      <c r="B808" t="n">
-        <v>182.7190909090909</v>
-      </c>
+      <c r="B808" t="inlineStr"/>
       <c r="C808" t="n">
         <v>383.8866666666667</v>
       </c>
@@ -23043,6 +23041,66 @@
       <c r="H808" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B809" t="n">
+        <v>358.58</v>
+      </c>
+      <c r="C809" t="n">
+        <v>383.62</v>
+      </c>
+      <c r="D809" t="n">
+        <v>385.88</v>
+      </c>
+      <c r="E809" t="n">
+        <v>385.51</v>
+      </c>
+      <c r="F809" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="G809" t="n">
+        <v>372.41</v>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B810" t="n">
+        <v>356.7336363636364</v>
+      </c>
+      <c r="C810" t="n">
+        <v>379.7833333333333</v>
+      </c>
+      <c r="D810" t="n">
+        <v>380.1533333333333</v>
+      </c>
+      <c r="E810" t="n">
+        <v>384.9233333333333</v>
+      </c>
+      <c r="F810" t="n">
+        <v>381.4533333333333</v>
+      </c>
+      <c r="G810" t="n">
+        <v>363.7</v>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23057,7 +23115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B819"/>
+  <dimension ref="A1:B821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31255,6 +31313,26 @@
       </c>
       <c r="B819" t="n">
         <v>0.49</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B820" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B821" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -31428,28 +31506,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2958263586666245</v>
+        <v>-0.2493092586708466</v>
       </c>
       <c r="J2" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K2" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02541776663663353</v>
+        <v>0.02616376823248423</v>
       </c>
       <c r="M2" t="n">
-        <v>8.84274501848852</v>
+        <v>8.519254459942186</v>
       </c>
       <c r="N2" t="n">
-        <v>193.2951816914334</v>
+        <v>133.4945197541913</v>
       </c>
       <c r="O2" t="n">
-        <v>13.90306375197328</v>
+        <v>11.55398285242761</v>
       </c>
       <c r="P2" t="n">
-        <v>383.9061462020169</v>
+        <v>383.4520930052225</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31506,28 +31584,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2243647398251077</v>
+        <v>-0.2296729869809605</v>
       </c>
       <c r="J3" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K3" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03580462864875633</v>
+        <v>0.03754564432752949</v>
       </c>
       <c r="M3" t="n">
-        <v>6.850734470102744</v>
+        <v>6.859265491713382</v>
       </c>
       <c r="N3" t="n">
-        <v>77.47628371507504</v>
+        <v>77.5175607492059</v>
       </c>
       <c r="O3" t="n">
-        <v>8.802061333294324</v>
+        <v>8.804405757869517</v>
       </c>
       <c r="P3" t="n">
-        <v>396.9170021650052</v>
+        <v>396.969485398073</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31584,28 +31662,28 @@
         <v>0.0635</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1754230045567739</v>
+        <v>-0.1801430298805667</v>
       </c>
       <c r="J4" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K4" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02837524702918681</v>
+        <v>0.02993402369994658</v>
       </c>
       <c r="M4" t="n">
-        <v>6.062308976367989</v>
+        <v>6.071173686190695</v>
       </c>
       <c r="N4" t="n">
-        <v>60.08813258378109</v>
+        <v>60.15123697607557</v>
       </c>
       <c r="O4" t="n">
-        <v>7.751653538683285</v>
+        <v>7.755722853227517</v>
       </c>
       <c r="P4" t="n">
-        <v>396.1875684080292</v>
+        <v>396.2341001401052</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31662,28 +31740,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05846818183233472</v>
+        <v>-0.06095790803030737</v>
       </c>
       <c r="J5" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K5" t="n">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003070664160220726</v>
+        <v>0.003353428458758856</v>
       </c>
       <c r="M5" t="n">
-        <v>6.196230238251797</v>
+        <v>6.191876093149208</v>
       </c>
       <c r="N5" t="n">
-        <v>63.1544576050632</v>
+        <v>63.03305666428489</v>
       </c>
       <c r="O5" t="n">
-        <v>7.946977891315868</v>
+        <v>7.939336034221306</v>
       </c>
       <c r="P5" t="n">
-        <v>391.3100998774401</v>
+        <v>391.3346243560962</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31740,28 +31818,28 @@
         <v>0.065</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.008511388960736483</v>
+        <v>-0.01090574239980291</v>
       </c>
       <c r="J6" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K6" t="n">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="L6" t="n">
-        <v>5.14288890226533e-05</v>
+        <v>8.483438434947477e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>6.873445726807263</v>
+        <v>6.867920423122152</v>
       </c>
       <c r="N6" t="n">
-        <v>80.36146304091658</v>
+        <v>80.23315809307047</v>
       </c>
       <c r="O6" t="n">
-        <v>8.964455535107337</v>
+        <v>8.957296360681077</v>
       </c>
       <c r="P6" t="n">
-        <v>390.2726410685549</v>
+        <v>390.2961439125974</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31818,28 +31896,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03495017540510802</v>
+        <v>-0.03835577544660931</v>
       </c>
       <c r="J7" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K7" t="n">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007477124181066719</v>
+        <v>0.0009041983079272065</v>
       </c>
       <c r="M7" t="n">
-        <v>7.701686242251887</v>
+        <v>7.696723776864313</v>
       </c>
       <c r="N7" t="n">
-        <v>93.03536432527613</v>
+        <v>92.92934645729795</v>
       </c>
       <c r="O7" t="n">
-        <v>9.645484141569884</v>
+        <v>9.639986849435944</v>
       </c>
       <c r="P7" t="n">
-        <v>375.1300406554382</v>
+        <v>375.1635766524663</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31877,7 +31955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H808"/>
+  <dimension ref="A1:H810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62501,11 +62579,7 @@
           <t>2025-06-17 21:53:44+00:00</t>
         </is>
       </c>
-      <c r="B808" t="inlineStr">
-        <is>
-          <t>-39.29896274042624,176.97618698842913</t>
-        </is>
-      </c>
+      <c r="B808" t="inlineStr"/>
       <c r="C808" t="inlineStr">
         <is>
           <t>-39.30076061303483,176.9770035602566</t>
@@ -62534,6 +62608,90 @@
       <c r="H808" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>-39.30017500188256,176.9774959417427</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>-39.3007589307509,176.97700135820085</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>-39.30127062122307,176.9764629559874</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>-39.301809448868006,176.9759178301753</t>
+        </is>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>-39.30236396516858,176.97545214581416</t>
+        </is>
+      </c>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>-39.30289725997741,176.9748956624978</t>
+        </is>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>-39.30016227443953,176.97748219880427</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>-39.30073472688588,176.97696967613507</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>-39.30123924781312,176.9764103456033</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>-39.3018064018943,176.97591228204976</t>
+        </is>
+      </c>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>-39.302326078069875,176.9753646828399</t>
+        </is>
+      </c>
+      <c r="G810" t="inlineStr">
+        <is>
+          <t>-39.30286569386339,176.9748033335564</t>
+        </is>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0290/nzd0290.xlsx
+++ b/data/nzd0290/nzd0290.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H810"/>
+  <dimension ref="A1:H811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23099,6 +23099,36 @@
         <v>363.7</v>
       </c>
       <c r="H810" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:11+00:00</t>
+        </is>
+      </c>
+      <c r="B811" t="n">
+        <v>368.639090909091</v>
+      </c>
+      <c r="C811" t="n">
+        <v>387.83</v>
+      </c>
+      <c r="D811" t="n">
+        <v>387.13</v>
+      </c>
+      <c r="E811" t="n">
+        <v>389.78</v>
+      </c>
+      <c r="F811" t="n">
+        <v>383.35</v>
+      </c>
+      <c r="G811" t="n">
+        <v>365.82</v>
+      </c>
+      <c r="H811" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -23115,7 +23145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B821"/>
+  <dimension ref="A1:B822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31333,6 +31363,16 @@
       </c>
       <c r="B821" t="n">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B822" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -31506,28 +31546,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2493092586708466</v>
+        <v>-0.2518227571238796</v>
       </c>
       <c r="J2" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="K2" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02616376823248423</v>
+        <v>0.02674366428122632</v>
       </c>
       <c r="M2" t="n">
-        <v>8.519254459942186</v>
+        <v>8.521709131269382</v>
       </c>
       <c r="N2" t="n">
-        <v>133.4945197541913</v>
+        <v>133.3904692611511</v>
       </c>
       <c r="O2" t="n">
-        <v>11.55398285242761</v>
+        <v>11.54947917705171</v>
       </c>
       <c r="P2" t="n">
-        <v>383.4520930052225</v>
+        <v>383.4769037710859</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31584,28 +31624,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2296729869809605</v>
+        <v>-0.2305691085481673</v>
       </c>
       <c r="J3" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="K3" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03754564432752949</v>
+        <v>0.03793295077611292</v>
       </c>
       <c r="M3" t="n">
-        <v>6.859265491713382</v>
+        <v>6.853865056401054</v>
       </c>
       <c r="N3" t="n">
-        <v>77.5175607492059</v>
+        <v>77.41545707972504</v>
       </c>
       <c r="O3" t="n">
-        <v>8.804405757869517</v>
+        <v>8.79860540538812</v>
       </c>
       <c r="P3" t="n">
-        <v>396.969485398073</v>
+        <v>396.9783887221914</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31662,28 +31702,28 @@
         <v>0.0635</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1801430298805667</v>
+        <v>-0.1813564183327514</v>
       </c>
       <c r="J4" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="K4" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02993402369994658</v>
+        <v>0.03040087015275805</v>
       </c>
       <c r="M4" t="n">
-        <v>6.071173686190695</v>
+        <v>6.069118170653012</v>
       </c>
       <c r="N4" t="n">
-        <v>60.15123697607557</v>
+        <v>60.092150374738</v>
       </c>
       <c r="O4" t="n">
-        <v>7.755722853227517</v>
+        <v>7.7519126913774</v>
       </c>
       <c r="P4" t="n">
-        <v>396.2341001401052</v>
+        <v>396.2461187953167</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31740,28 +31780,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06095790803030737</v>
+        <v>-0.06094887972750867</v>
       </c>
       <c r="J5" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="K5" t="n">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003353428458758856</v>
+        <v>0.003362440045619919</v>
       </c>
       <c r="M5" t="n">
-        <v>6.191876093149208</v>
+        <v>6.183051261946367</v>
       </c>
       <c r="N5" t="n">
-        <v>63.03305666428489</v>
+        <v>62.94275298209428</v>
       </c>
       <c r="O5" t="n">
-        <v>7.939336034221306</v>
+        <v>7.933646890434075</v>
       </c>
       <c r="P5" t="n">
-        <v>391.3346243560962</v>
+        <v>391.3345349925432</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31818,28 +31858,28 @@
         <v>0.065</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01090574239980291</v>
+        <v>-0.01277778477512127</v>
       </c>
       <c r="J6" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="K6" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L6" t="n">
-        <v>8.483438434947477e-05</v>
+        <v>0.000116720587665986</v>
       </c>
       <c r="M6" t="n">
-        <v>6.867920423122152</v>
+        <v>6.869117849336036</v>
       </c>
       <c r="N6" t="n">
-        <v>80.23315809307047</v>
+        <v>80.18014127045437</v>
       </c>
       <c r="O6" t="n">
-        <v>8.957296360681077</v>
+        <v>8.954336450595006</v>
       </c>
       <c r="P6" t="n">
-        <v>390.2961439125974</v>
+        <v>390.3145982857336</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31896,28 +31936,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03835577544660931</v>
+        <v>-0.0406683875995156</v>
       </c>
       <c r="J7" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="K7" t="n">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0009041983079272065</v>
+        <v>0.001018381362426601</v>
       </c>
       <c r="M7" t="n">
-        <v>7.696723776864313</v>
+        <v>7.697281041216906</v>
       </c>
       <c r="N7" t="n">
-        <v>92.92934645729795</v>
+        <v>92.89498134414347</v>
       </c>
       <c r="O7" t="n">
-        <v>9.639986849435944</v>
+        <v>9.638204259308031</v>
       </c>
       <c r="P7" t="n">
-        <v>375.1635766524663</v>
+        <v>375.1864517100608</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31955,7 +31995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H810"/>
+  <dimension ref="A1:H811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62695,6 +62735,48 @@
         </is>
       </c>
     </row>
+    <row r="811">
+      <c r="A811" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:11+00:00</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>-39.300244341660616,176.97757081411788</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>-39.30078548980262,176.97703612316872</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>-39.30127746931544,176.97647443963382</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>-39.3018316259804,176.97595821171691</t>
+        </is>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>-39.30233438870014,176.9753838680412</t>
+        </is>
+      </c>
+      <c r="G811" t="inlineStr">
+        <is>
+          <t>-39.302873377011956,176.97482580626513</t>
+        </is>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0290/nzd0290.xlsx
+++ b/data/nzd0290/nzd0290.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H811"/>
+  <dimension ref="A1:H813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23131,6 +23131,66 @@
       <c r="H811" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-05 21:54:11+00:00</t>
+        </is>
+      </c>
+      <c r="B812" t="n">
+        <v>369.6345454545455</v>
+      </c>
+      <c r="C812" t="n">
+        <v>381.9333333333333</v>
+      </c>
+      <c r="D812" t="n">
+        <v>381.5833333333333</v>
+      </c>
+      <c r="E812" t="n">
+        <v>384.9833333333333</v>
+      </c>
+      <c r="F812" t="n">
+        <v>385.6433333333333</v>
+      </c>
+      <c r="G812" t="n">
+        <v>367.23</v>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:24+00:00</t>
+        </is>
+      </c>
+      <c r="B813" t="n">
+        <v>373.1627272727272</v>
+      </c>
+      <c r="C813" t="n">
+        <v>387.4</v>
+      </c>
+      <c r="D813" t="n">
+        <v>386.39</v>
+      </c>
+      <c r="E813" t="n">
+        <v>386.35</v>
+      </c>
+      <c r="F813" t="n">
+        <v>378.03</v>
+      </c>
+      <c r="G813" t="n">
+        <v>360.31</v>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -23145,7 +23205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B822"/>
+  <dimension ref="A1:B824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31373,6 +31433,26 @@
       </c>
       <c r="B822" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>2025-09-05 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B823" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B824" t="n">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -31546,28 +31626,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2518227571238796</v>
+        <v>-0.25512928656565</v>
       </c>
       <c r="J2" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K2" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02674366428122632</v>
+        <v>0.02758491635555671</v>
       </c>
       <c r="M2" t="n">
-        <v>8.521709131269382</v>
+        <v>8.515604786754226</v>
       </c>
       <c r="N2" t="n">
-        <v>133.3904692611511</v>
+        <v>133.0688399107989</v>
       </c>
       <c r="O2" t="n">
-        <v>11.54947917705171</v>
+        <v>11.53554679721767</v>
       </c>
       <c r="P2" t="n">
-        <v>383.4769037710859</v>
+        <v>383.5095885632219</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31624,28 +31704,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2305691085481673</v>
+        <v>-0.2341209752652461</v>
       </c>
       <c r="J3" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K3" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03793295077611292</v>
+        <v>0.03922624140779951</v>
       </c>
       <c r="M3" t="n">
-        <v>6.853865056401054</v>
+        <v>6.852866158485966</v>
       </c>
       <c r="N3" t="n">
-        <v>77.41545707972504</v>
+        <v>77.32325085430361</v>
       </c>
       <c r="O3" t="n">
-        <v>8.79860540538812</v>
+        <v>8.793364023756984</v>
       </c>
       <c r="P3" t="n">
-        <v>396.9783887221914</v>
+        <v>397.0137256312634</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31702,28 +31782,28 @@
         <v>0.0635</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1813564183327514</v>
+        <v>-0.1854722937028959</v>
       </c>
       <c r="J4" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K4" t="n">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03040087015275805</v>
+        <v>0.03184423997457664</v>
       </c>
       <c r="M4" t="n">
-        <v>6.069118170653012</v>
+        <v>6.074437051209329</v>
       </c>
       <c r="N4" t="n">
-        <v>60.092150374738</v>
+        <v>60.0976320898742</v>
       </c>
       <c r="O4" t="n">
-        <v>7.7519126913774</v>
+        <v>7.752266255094326</v>
       </c>
       <c r="P4" t="n">
-        <v>396.2461187953167</v>
+        <v>396.2869432029483</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31780,28 +31860,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06094887972750867</v>
+        <v>-0.06316463643072817</v>
       </c>
       <c r="J5" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K5" t="n">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003362440045619919</v>
+        <v>0.0036291770383865</v>
       </c>
       <c r="M5" t="n">
-        <v>6.183051261946367</v>
+        <v>6.177338774447362</v>
       </c>
       <c r="N5" t="n">
-        <v>62.94275298209428</v>
+        <v>62.81136239816815</v>
       </c>
       <c r="O5" t="n">
-        <v>7.933646890434075</v>
+        <v>7.925361972690468</v>
       </c>
       <c r="P5" t="n">
-        <v>391.3345349925432</v>
+        <v>391.3564986221605</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31858,28 +31938,28 @@
         <v>0.065</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01277778477512127</v>
+        <v>-0.01732857556856087</v>
       </c>
       <c r="J6" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K6" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000116720587665986</v>
+        <v>0.0002153356014187313</v>
       </c>
       <c r="M6" t="n">
-        <v>6.869117849336036</v>
+        <v>6.876432608806942</v>
       </c>
       <c r="N6" t="n">
-        <v>80.18014127045437</v>
+        <v>80.18027493684285</v>
       </c>
       <c r="O6" t="n">
-        <v>8.954336450595006</v>
+        <v>8.954343914371552</v>
       </c>
       <c r="P6" t="n">
-        <v>390.3145982857336</v>
+        <v>390.3595374711786</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31936,28 +32016,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0406683875995156</v>
+        <v>-0.04637543591116865</v>
       </c>
       <c r="J7" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K7" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001018381362426601</v>
+        <v>0.001326953189623725</v>
       </c>
       <c r="M7" t="n">
-        <v>7.697281041216906</v>
+        <v>7.703907968410298</v>
       </c>
       <c r="N7" t="n">
-        <v>92.89498134414347</v>
+        <v>92.96860678636787</v>
       </c>
       <c r="O7" t="n">
-        <v>9.638204259308031</v>
+        <v>9.642022961306816</v>
       </c>
       <c r="P7" t="n">
-        <v>375.1864517100608</v>
+        <v>375.2429977697737</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31995,7 +32075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H811"/>
+  <dimension ref="A1:H813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62777,6 +62857,90 @@
         </is>
       </c>
     </row>
+    <row r="812">
+      <c r="A812" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-05 21:54:11+00:00</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>-39.300251203569616,176.97757822354768</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>-39.300748290304064,176.9769874302005</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>-39.301247082037285,176.97642348288346</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>-39.30180671351663,176.97591284947165</t>
+        </is>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>-39.30234443740143,176.9754070656191</t>
+        </is>
+      </c>
+      <c r="G812" t="inlineStr">
+        <is>
+          <t>-39.302878487028046,176.97484075273906</t>
+        </is>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:24+00:00</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>-39.30027552417594,176.97760448474412</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>-39.300782777120915,176.97703257235133</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>-39.30127341524491,176.97646764131485</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>-39.30181381157986,176.97592577408315</t>
+        </is>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>-39.30231107803087,176.97533005507987</t>
+        </is>
+      </c>
+      <c r="G813" t="inlineStr">
+        <is>
+          <t>-39.30285340806433,176.9747673984327</t>
+        </is>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0290/nzd0290.xlsx
+++ b/data/nzd0290/nzd0290.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H813"/>
+  <dimension ref="A1:H814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23191,6 +23191,36 @@
       <c r="H813" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-06 22:00:34+00:00</t>
+        </is>
+      </c>
+      <c r="B814" t="n">
+        <v>369.04</v>
+      </c>
+      <c r="C814" t="n">
+        <v>381.55</v>
+      </c>
+      <c r="D814" t="n">
+        <v>386.67</v>
+      </c>
+      <c r="E814" t="n">
+        <v>387.3</v>
+      </c>
+      <c r="F814" t="n">
+        <v>385.32</v>
+      </c>
+      <c r="G814" t="n">
+        <v>366.87</v>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23205,7 +23235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B824"/>
+  <dimension ref="A1:B825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31453,6 +31483,16 @@
       </c>
       <c r="B824" t="n">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>2025-10-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B825" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -32075,7 +32115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H813"/>
+  <dimension ref="A1:H814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62941,6 +62981,48 @@
         </is>
       </c>
     </row>
+    <row r="814">
+      <c r="A814" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-06 22:00:34+00:00</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>-39.300247105224045,176.9775737981894</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>-39.300745872020435,176.97698426474648</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>-39.30127494921759,176.97647021365168</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>-39.3018187455985,176.9759347582658</t>
+        </is>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>-39.30234302065169,176.97540379502996</t>
+        </is>
+      </c>
+      <c r="G814" t="inlineStr">
+        <is>
+          <t>-39.30287718234328,176.97483693661786</t>
+        </is>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0290/nzd0290.xlsx
+++ b/data/nzd0290/nzd0290.xlsx
@@ -31666,28 +31666,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.25512928656565</v>
+        <v>-0.2574736495169995</v>
       </c>
       <c r="J2" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K2" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02758491635555671</v>
+        <v>0.02814978615925123</v>
       </c>
       <c r="M2" t="n">
-        <v>8.515604786754226</v>
+        <v>8.516897126753117</v>
       </c>
       <c r="N2" t="n">
-        <v>133.0688399107989</v>
+        <v>132.9525496588667</v>
       </c>
       <c r="O2" t="n">
-        <v>11.53554679721767</v>
+        <v>11.53050517795585</v>
       </c>
       <c r="P2" t="n">
-        <v>383.5095885632219</v>
+        <v>383.5328524695574</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31744,28 +31744,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2341209752652461</v>
+        <v>-0.236761747486861</v>
       </c>
       <c r="J3" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K3" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03922624140779951</v>
+        <v>0.04013379223407054</v>
       </c>
       <c r="M3" t="n">
-        <v>6.852866158485966</v>
+        <v>6.857061451798646</v>
       </c>
       <c r="N3" t="n">
-        <v>77.32325085430361</v>
+        <v>77.33758529849236</v>
       </c>
       <c r="O3" t="n">
-        <v>8.793364023756984</v>
+        <v>8.794179057677434</v>
       </c>
       <c r="P3" t="n">
-        <v>397.0137256312634</v>
+        <v>397.0401014117297</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31822,28 +31822,28 @@
         <v>0.0635</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1854722937028959</v>
+        <v>-0.1867784859284546</v>
       </c>
       <c r="J4" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K4" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03184423997457664</v>
+        <v>0.03235675795919957</v>
       </c>
       <c r="M4" t="n">
-        <v>6.074437051209329</v>
+        <v>6.072887478968934</v>
       </c>
       <c r="N4" t="n">
-        <v>60.0976320898742</v>
+        <v>60.04354966142405</v>
       </c>
       <c r="O4" t="n">
-        <v>7.752266255094326</v>
+        <v>7.748777301060088</v>
       </c>
       <c r="P4" t="n">
-        <v>396.2869432029483</v>
+        <v>396.299948460789</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31900,28 +31900,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06316463643072817</v>
+        <v>-0.06381952425129676</v>
       </c>
       <c r="J5" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K5" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0036291770383865</v>
+        <v>0.003715126768824351</v>
       </c>
       <c r="M5" t="n">
-        <v>6.177338774447362</v>
+        <v>6.172053023399808</v>
       </c>
       <c r="N5" t="n">
-        <v>62.81136239816815</v>
+        <v>62.72997198519844</v>
       </c>
       <c r="O5" t="n">
-        <v>7.925361972690468</v>
+        <v>7.920225500905794</v>
       </c>
       <c r="P5" t="n">
-        <v>391.3564986221605</v>
+        <v>391.3630143003214</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31978,28 +31978,28 @@
         <v>0.065</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01732857556856087</v>
+        <v>-0.01861228589734335</v>
       </c>
       <c r="J6" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K6" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002153356014187313</v>
+        <v>0.0002490871216614954</v>
       </c>
       <c r="M6" t="n">
-        <v>6.876432608806942</v>
+        <v>6.874082274985528</v>
       </c>
       <c r="N6" t="n">
-        <v>80.18027493684285</v>
+        <v>80.09353819184749</v>
       </c>
       <c r="O6" t="n">
-        <v>8.954343914371552</v>
+        <v>8.949499326322535</v>
       </c>
       <c r="P6" t="n">
-        <v>390.3595374711786</v>
+        <v>390.3722574075117</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32056,28 +32056,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04637543591116865</v>
+        <v>-0.04835253942366498</v>
       </c>
       <c r="J7" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K7" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001326953189623725</v>
+        <v>0.001445569491432264</v>
       </c>
       <c r="M7" t="n">
-        <v>7.703907968410298</v>
+        <v>7.70272344917622</v>
       </c>
       <c r="N7" t="n">
-        <v>92.96860678636787</v>
+        <v>92.90783902395779</v>
       </c>
       <c r="O7" t="n">
-        <v>9.642022961306816</v>
+        <v>9.638871252587503</v>
       </c>
       <c r="P7" t="n">
-        <v>375.2429977697737</v>
+        <v>375.2626555233394</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">

--- a/data/nzd0290/nzd0290.xlsx
+++ b/data/nzd0290/nzd0290.xlsx
@@ -31657,13 +31657,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0495</v>
+        <v>0.0341</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0584</v>
+        <v>0.0479</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2574982596527847</v>
@@ -31735,13 +31735,13 @@
         <v>0.1999036046327648</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0542</v>
+        <v>0.0634</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.0776</v>
       </c>
       <c r="I3" t="n">
         <v>-0.2367702659951465</v>
@@ -31813,13 +31813,13 @@
         <v>0.399611613694728</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0546</v>
+        <v>0.0643</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0635</v>
+        <v>0.0718</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1867901540122237</v>
@@ -31891,13 +31891,13 @@
         <v>0.6001017302154386</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.055</v>
+        <v>0.0589</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.0693</v>
       </c>
       <c r="I5" t="n">
         <v>-0.06382355953972826</v>
@@ -31969,13 +31969,13 @@
         <v>0.8004174858777223</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.058</v>
+        <v>0.0638</v>
       </c>
       <c r="H6" t="n">
-        <v>0.065</v>
+        <v>0.0737</v>
       </c>
       <c r="I6" t="n">
         <v>-0.0186194329427163</v>
@@ -32050,10 +32050,10 @@
         <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0453</v>
+        <v>0.0452</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0527</v>
+        <v>0.0537</v>
       </c>
       <c r="I7" t="n">
         <v>-0.04835253942366493</v>
